--- a/Master_Sheet.xlsx
+++ b/Master_Sheet.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jreinberg13/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jreinberg13/Documents/GitHub/UnifiResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEF156BF-97EC-0E41-905E-8004BA444553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1BB496-BD81-3441-9237-C8F03F208C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27240" windowHeight="15220" xr2:uid="{336C8796-60CB-4448-92DC-EA3FD2C63DE9}"/>
+    <workbookView xWindow="10360" yWindow="500" windowWidth="22900" windowHeight="15220" xr2:uid="{336C8796-60CB-4448-92DC-EA3FD2C63DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="ETH Total Transaction Fees" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>January</t>
   </si>
@@ -72,7 +72,16 @@
     <t>December</t>
   </si>
   <si>
-    <t>ALL VALUES IN ETH</t>
+    <t>BSC</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Ethereum</t>
+  </si>
+  <si>
+    <t>Avalanche</t>
   </si>
 </sst>
 </file>
@@ -82,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +120,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,10 +150,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -452,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0408AECF-CD99-2746-A1C7-FE1C2FC40BBC}">
-  <dimension ref="B2:G14"/>
+  <dimension ref="A2:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,7 +483,10 @@
     <col min="5" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2">
         <v>2020</v>
@@ -477,7 +498,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -490,11 +511,8 @@
       <c r="E3" s="2">
         <v>188248136.05268347</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -508,7 +526,7 @@
         <v>168283813.19546998</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -522,7 +540,7 @@
         <v>119645383.59926251</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -536,7 +554,7 @@
         <v>118142799.04480219</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -550,7 +568,7 @@
         <v>153071749.91917318</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -564,7 +582,7 @@
         <v>100231236.12457536</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -578,7 +596,7 @@
         <v>87386759.543464035</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -592,7 +610,7 @@
         <v>71522679.109001219</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -606,7 +624,7 @@
         <v>45685547.334206648</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -618,7 +636,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -630,7 +648,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -641,6 +659,384 @@
         <v>158841182.36478996</v>
       </c>
       <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(C3:C14)</f>
+        <v>5954134679.9016008</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:E15" si="0">SUM(D3:D14)</f>
+        <v>8795765470.2123413</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>1052218103.9226388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18">
+        <v>2020</v>
+      </c>
+      <c r="D18">
+        <v>2021</v>
+      </c>
+      <c r="E18">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19">
+        <v>12973.502242959998</v>
+      </c>
+      <c r="E19">
+        <v>270653.96046394994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20">
+        <v>69304.170350169996</v>
+      </c>
+      <c r="E20">
+        <v>228756.76844027001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21">
+        <v>96617.071278300034</v>
+      </c>
+      <c r="E21">
+        <v>213460.07592483997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22">
+        <v>203176.54695210001</v>
+      </c>
+      <c r="E22">
+        <v>203557.86321215003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23">
+        <v>303936.52483087999</v>
+      </c>
+      <c r="E23">
+        <v>191984.83042417999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24">
+        <v>187777.27089079001</v>
+      </c>
+      <c r="E24">
+        <v>153587.73933798002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25">
+        <v>288555.64666038996</v>
+      </c>
+      <c r="E25">
+        <v>146174.68195144006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26">
+        <v>374711.59131995006</v>
+      </c>
+      <c r="E26">
+        <v>129469.70133003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>2777.4963118699993</v>
+      </c>
+      <c r="D27">
+        <v>256324.76945318995</v>
+      </c>
+      <c r="E27">
+        <v>86224.150276859989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>6350.3516947300013</v>
+      </c>
+      <c r="D28">
+        <v>349093.17074248998</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>5225.2683437000005</v>
+      </c>
+      <c r="D29">
+        <v>578345.89316281001</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>7625.1266395200018</v>
+      </c>
+      <c r="D30">
+        <v>375396.27598556993</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3">
+        <f>SUM(C19:C30)</f>
+        <v>21978.242989820006</v>
+      </c>
+      <c r="D31" s="3">
+        <f>SUM(D19:D30)</f>
+        <v>3096212.4338695994</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" ref="E31" si="1">SUM(E19:E30)</f>
+        <v>1623869.7713617003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34">
+        <v>2020</v>
+      </c>
+      <c r="D34">
+        <v>2021</v>
+      </c>
+      <c r="E34">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35">
+        <v>2.6471785849999998</v>
+      </c>
+      <c r="E35">
+        <v>3212.351539530001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36">
+        <v>34.700866363000003</v>
+      </c>
+      <c r="E36">
+        <v>3798.0433221000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37">
+        <v>62.550672212999999</v>
+      </c>
+      <c r="E37">
+        <v>4662.3602621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38">
+        <v>83.934753983999983</v>
+      </c>
+      <c r="E38">
+        <v>4673.1353620999989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39">
+        <v>162.17354466699999</v>
+      </c>
+      <c r="E39">
+        <v>3044.76509747</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40">
+        <v>86.733060157999986</v>
+      </c>
+      <c r="E40">
+        <v>1417.1635988599999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41">
+        <v>73.499458830999984</v>
+      </c>
+      <c r="E41">
+        <v>1183.5913256499998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42">
+        <v>377.70653384600001</v>
+      </c>
+      <c r="E42">
+        <v>1149.3496292500001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>3.5370578E-2</v>
+      </c>
+      <c r="D43">
+        <v>783.19297426000014</v>
+      </c>
+      <c r="E43">
+        <v>725.42316131000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>0.21362762499999993</v>
+      </c>
+      <c r="D44">
+        <v>1268.5795459799997</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>5.2687018999999995E-2</v>
+      </c>
+      <c r="D45">
+        <v>2139.5064091599997</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>0.60536798800000002</v>
+      </c>
+      <c r="D46">
+        <v>3266.3416425100004</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="3">
+        <f>SUM(C35:C46)</f>
+        <v>0.90705320999999994</v>
+      </c>
+      <c r="D47" s="3">
+        <f>SUM(D35:D46)</f>
+        <v>8341.5666405570009</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" ref="E47" si="2">SUM(E35:E46)</f>
+        <v>23866.183298370001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Master_Sheet.xlsx
+++ b/Master_Sheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jreinberg13/Documents/GitHub/UnifiResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1BB496-BD81-3441-9237-C8F03F208C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7DE200-E8A3-5647-8439-129DFEA79E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="500" windowWidth="22900" windowHeight="15220" xr2:uid="{336C8796-60CB-4448-92DC-EA3FD2C63DE9}"/>
+    <workbookView xWindow="5900" yWindow="500" windowWidth="22900" windowHeight="15220" xr2:uid="{336C8796-60CB-4448-92DC-EA3FD2C63DE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="ETH Total Transaction Fees" sheetId="1" r:id="rId1"/>
+    <sheet name="Total Transaction Fees" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -472,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0408AECF-CD99-2746-A1C7-FE1C2FC40BBC}">
   <dimension ref="A2:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E35" sqref="E35:E43"/>
     </sheetView>
   </sheetViews>

--- a/Master_Sheet.xlsx
+++ b/Master_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jreinberg13/Documents/GitHub/UnifiResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B7DE200-E8A3-5647-8439-129DFEA79E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BCBFA0-4575-AE48-BE38-19DBD924D4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5900" yWindow="500" windowWidth="22900" windowHeight="15220" xr2:uid="{336C8796-60CB-4448-92DC-EA3FD2C63DE9}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="22900" windowHeight="15220" xr2:uid="{336C8796-60CB-4448-92DC-EA3FD2C63DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Transaction Fees" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
   <si>
     <t>January</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Avalanche</t>
+  </si>
+  <si>
+    <t>Polygon</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0408AECF-CD99-2746-A1C7-FE1C2FC40BBC}">
-  <dimension ref="A2:E47"/>
+  <dimension ref="A2:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:E43"/>
+      <selection activeCell="C14" sqref="C3:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,137 +505,137 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
-        <v>35640681.7791811</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1104432844.8818374</v>
-      </c>
-      <c r="E3" s="2">
-        <v>188248136.05268347</v>
+      <c r="C3">
+        <v>9705.5616792755045</v>
+      </c>
+      <c r="D3">
+        <v>273504.33063001058</v>
+      </c>
+      <c r="E3">
+        <v>42738.085273025987</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
-        <v>48101015.228262059</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1724857355.1799204</v>
-      </c>
-      <c r="E4" s="2">
-        <v>168283813.19546998</v>
+      <c r="C4">
+        <v>12987.156698911589</v>
+      </c>
+      <c r="D4">
+        <v>423959.58428982366</v>
+      </c>
+      <c r="E4">
+        <v>37970.760158022036</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
-        <v>97620754.89541088</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1530266196.6664166</v>
-      </c>
-      <c r="E5" s="2">
-        <v>119645383.59926251</v>
+      <c r="C5">
+        <v>26157.266749570179</v>
+      </c>
+      <c r="D5">
+        <v>373341.95810410765</v>
+      </c>
+      <c r="E5">
+        <v>26801.227826930499</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
-        <v>66304448.433386452</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1304834424.8745482</v>
-      </c>
-      <c r="E6" s="2">
-        <v>118142799.04480219</v>
+      <c r="C6">
+        <v>17609.485646606987</v>
+      </c>
+      <c r="D6">
+        <v>316138.01449521934</v>
+      </c>
+      <c r="E6">
+        <v>26302.017774321328</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
-        <v>183540642.83017215</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1288284459.0883999</v>
-      </c>
-      <c r="E7" s="2">
-        <v>153071749.91917318</v>
+      <c r="C7">
+        <v>48344.410777875404</v>
+      </c>
+      <c r="D7">
+        <v>309860.04362762003</v>
+      </c>
+      <c r="E7">
+        <v>33875.728820492666</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
-        <v>356828068.32949072</v>
-      </c>
-      <c r="D8" s="2">
-        <v>301357587.30280459</v>
-      </c>
-      <c r="E8" s="2">
-        <v>100231236.12457536</v>
+      <c r="C8">
+        <v>93307.111458478365</v>
+      </c>
+      <c r="D8">
+        <v>71927.595136702294</v>
+      </c>
+      <c r="E8">
+        <v>22006.117349997348</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
-        <v>489228522.37758768</v>
-      </c>
-      <c r="D9" s="2">
-        <v>396283360.63537574</v>
-      </c>
-      <c r="E9" s="2">
-        <v>87386759.543464035</v>
+      <c r="C9">
+        <v>126818.71297660519</v>
+      </c>
+      <c r="D9">
+        <v>93870.231832583842</v>
+      </c>
+      <c r="E9">
+        <v>19061.034727208305</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
-        <v>1102141939.8076646</v>
-      </c>
-      <c r="D10" s="2">
-        <v>281190843.97076523</v>
-      </c>
-      <c r="E10" s="2">
-        <v>71522679.109001219</v>
+      <c r="C10">
+        <v>283497.66169942426</v>
+      </c>
+      <c r="D10">
+        <v>66172.757610851928</v>
+      </c>
+      <c r="E10">
+        <v>15497.182376810115</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2">
-        <v>1761556807.5176203</v>
-      </c>
-      <c r="D11" s="2">
-        <v>274452237.82368606</v>
-      </c>
-      <c r="E11" s="2">
-        <v>45685547.334206648</v>
+      <c r="C11">
+        <v>450089.65021405573</v>
+      </c>
+      <c r="D11">
+        <v>64109.577536173405</v>
+      </c>
+      <c r="E11">
+        <v>8792.1794148362133</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
-        <v>603428077.4864037</v>
-      </c>
-      <c r="D12" s="2">
-        <v>218267609.46850985</v>
+      <c r="C12">
+        <v>152951.18870914797</v>
+      </c>
+      <c r="D12">
+        <v>50609.416578533259</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -640,11 +643,11 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2">
-        <v>512333435.68881899</v>
-      </c>
-      <c r="D13" s="2">
-        <v>212697367.95528856</v>
+      <c r="C13">
+        <v>128764.08041581002</v>
+      </c>
+      <c r="D13">
+        <v>48983.667794738889</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -652,11 +655,11 @@
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2">
-        <v>697410285.52760327</v>
-      </c>
-      <c r="D14" s="2">
-        <v>158841182.36478996</v>
+      <c r="C14">
+        <v>173907.64506409786</v>
+      </c>
+      <c r="D14">
+        <v>36331.417526959507</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -666,15 +669,15 @@
       </c>
       <c r="C15" s="3">
         <f>SUM(C3:C14)</f>
-        <v>5954134679.9016008</v>
+        <v>1524139.9320898589</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ref="D15:E15" si="0">SUM(D3:D14)</f>
-        <v>8795765470.2123413</v>
+        <v>2128808.5951633244</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>1052218103.9226388</v>
+        <v>233044.33372164451</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1036,6 +1039,185 @@
       <c r="E47" s="3">
         <f t="shared" ref="E47" si="2">SUM(E35:E46)</f>
         <v>23866.183298370001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49">
+        <v>2020</v>
+      </c>
+      <c r="D49">
+        <v>2021</v>
+      </c>
+      <c r="E49">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>7.2449990000000002E+20</v>
+      </c>
+      <c r="E50">
+        <v>2.7366319999999998E+24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>2.3787280000000003E+21</v>
+      </c>
+      <c r="E51">
+        <v>9.9936099999999989E+23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>1.9219069999999997E+22</v>
+      </c>
+      <c r="E52">
+        <v>9.7395100000000009E+23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>2.579968E+22</v>
+      </c>
+      <c r="E53">
+        <v>1.140549E+24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>5.9496449999999991E+22</v>
+      </c>
+      <c r="E54">
+        <v>2.0499430000000001E+24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>2.39765167E+17</v>
+      </c>
+      <c r="D55">
+        <v>2.480058E+23</v>
+      </c>
+      <c r="E55">
+        <v>2.1321710000000003E+24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>7.12043959E+18</v>
+      </c>
+      <c r="D56">
+        <v>5.8858410000000005E+23</v>
+      </c>
+      <c r="E56">
+        <v>1.7589320000000002E+24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>3.838358E+19</v>
+      </c>
+      <c r="D57">
+        <v>6.877310000000001E+23</v>
+      </c>
+      <c r="E57">
+        <v>1.6185860000000001E+24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>1.8728278000000002E+20</v>
+      </c>
+      <c r="D58">
+        <v>8.3690200000000005E+23</v>
+      </c>
+      <c r="E58">
+        <v>1.0380850000000003E+24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>2.412296E+20</v>
+      </c>
+      <c r="D59">
+        <v>9.4118399999999983E+23</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>1.868724E+20</v>
+      </c>
+      <c r="D60">
+        <v>1.2681519999999999E+24</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>4.8060169999999998E+20</v>
+      </c>
+      <c r="D61">
+        <v>1.5827269999999998E+24</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="3">
+        <f>SUM(C50:C61)</f>
+        <v>1.1417302647570001E+21</v>
+      </c>
+      <c r="D62" s="3">
+        <f>SUM(D50:D61)</f>
+        <v>6.2609043278999999E+24</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" ref="E62" si="3">SUM(E50:E61)</f>
+        <v>1.4448209999999999E+25</v>
       </c>
     </row>
   </sheetData>

--- a/Master_Sheet.xlsx
+++ b/Master_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jreinberg13/Documents/GitHub/UnifiResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BCBFA0-4575-AE48-BE38-19DBD924D4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEB40EF-4BF9-B849-A813-1DF5B58959E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="500" windowWidth="22900" windowHeight="15220" xr2:uid="{336C8796-60CB-4448-92DC-EA3FD2C63DE9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
   <si>
     <t>January</t>
   </si>
@@ -91,7 +91,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -140,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -148,19 +149,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0408AECF-CD99-2746-A1C7-FE1C2FC40BBC}">
-  <dimension ref="A2:E62"/>
+  <dimension ref="A2:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C3:C14"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,24 +516,38 @@
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2">
+      <c r="B2" s="6"/>
+      <c r="C2" s="5">
         <v>2020</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>2021</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="8"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="5">
+        <v>2020</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2021</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -514,8 +560,21 @@
       <c r="E3">
         <v>42738.085273025987</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="8"/>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1392529.314071473</v>
+      </c>
+      <c r="I3" s="4">
+        <v>272663958.37869143</v>
+      </c>
+      <c r="J3" s="4">
+        <v>144016308.50072598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -528,8 +587,20 @@
       <c r="E4">
         <v>37970.760158022036</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2885746.9626260577</v>
+      </c>
+      <c r="I4" s="4">
+        <v>687191017.89067817</v>
+      </c>
+      <c r="J4" s="4">
+        <v>105772085.62902129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -542,8 +613,20 @@
       <c r="E5">
         <v>26801.227826930499</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5249836.9349727184</v>
+      </c>
+      <c r="I5" s="4">
+        <v>636874019.89665222</v>
+      </c>
+      <c r="J5" s="4">
+        <v>73687226.808572218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -556,8 +639,20 @@
       <c r="E6">
         <v>26302.017774321328</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2773636.4141172525</v>
+      </c>
+      <c r="I6" s="4">
+        <v>647404138.07593489</v>
+      </c>
+      <c r="J6" s="4">
+        <v>84414967.207437068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -570,8 +665,20 @@
       <c r="E7">
         <v>33875.728820492666</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>9840020.4726819079</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1033953366.8283145</v>
+      </c>
+      <c r="J7" s="4">
+        <v>90333662.677756265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -584,8 +691,20 @@
       <c r="E8">
         <v>22006.117349997348</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>21946295.71590599</v>
+      </c>
+      <c r="I8" s="4">
+        <v>180013904.59193668</v>
+      </c>
+      <c r="J8" s="4">
+        <v>35049009.432034835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -598,8 +717,20 @@
       <c r="E9">
         <v>19061.034727208305</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4">
+        <v>30341847.790726349</v>
+      </c>
+      <c r="I9" s="4">
+        <v>193034312.61828864</v>
+      </c>
+      <c r="J9" s="4">
+        <v>23394939.178285208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -612,8 +743,20 @@
       <c r="E10">
         <v>15497.182376810115</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4">
+        <v>110077627.38197212</v>
+      </c>
+      <c r="I10" s="4">
+        <v>183310057.00763515</v>
+      </c>
+      <c r="J10" s="4">
+        <v>26433576.55894924</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -626,8 +769,20 @@
       <c r="E11">
         <v>8792.1794148362133</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4">
+        <v>171111479.90355253</v>
+      </c>
+      <c r="I11" s="4">
+        <v>217840126.26484093</v>
+      </c>
+      <c r="J11" s="4">
+        <v>14015873.748878164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -638,8 +793,18 @@
         <v>50609.416578533259</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="4">
+        <v>55356817.855323538</v>
+      </c>
+      <c r="I12" s="4">
+        <v>177894658.89751881</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -650,37 +815,72 @@
         <v>48983.667794738889</v>
       </c>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4">
+        <v>57309707.932708867</v>
+      </c>
+      <c r="I13" s="4">
+        <v>215429696.02718508</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>173907.64506409786</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>36331.417526959507</v>
       </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="E14" s="7"/>
+      <c r="G14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="10">
+        <v>103940473.43714187</v>
+      </c>
+      <c r="I14" s="10">
+        <v>151804818.09631392</v>
+      </c>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="12">
         <f>SUM(C3:C14)</f>
         <v>1524139.9320898589</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="12">
         <f t="shared" ref="D15:E15" si="0">SUM(D3:D14)</f>
         <v>2128808.5951633244</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
         <v>233044.33372164451</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="9">
+        <f>SUM(H3:H14)</f>
+        <v>572226020.11580074</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" ref="I15:J15" si="1">SUM(I3:I14)</f>
+        <v>4597414074.5739899</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="1"/>
+        <v>597117649.74166024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -859,7 +1059,7 @@
         <v>3096212.4338695994</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" ref="E31" si="1">SUM(E19:E30)</f>
+        <f t="shared" ref="E31" si="2">SUM(E19:E30)</f>
         <v>1623869.7713617003</v>
       </c>
     </row>
@@ -1037,7 +1237,7 @@
         <v>8341.5666405570009</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" ref="E47" si="2">SUM(E35:E46)</f>
+        <f t="shared" ref="E47" si="3">SUM(E35:E46)</f>
         <v>23866.183298370001</v>
       </c>
     </row>
@@ -1216,7 +1416,7 @@
         <v>6.2609043278999999E+24</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" ref="E62" si="3">SUM(E50:E61)</f>
+        <f t="shared" ref="E62" si="4">SUM(E50:E61)</f>
         <v>1.4448209999999999E+25</v>
       </c>
     </row>

--- a/Master_Sheet.xlsx
+++ b/Master_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jreinberg13/Documents/GitHub/UnifiResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEB40EF-4BF9-B849-A813-1DF5B58959E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE258C9-F7F4-CD4A-95D5-BA730B2B43BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="500" windowWidth="22900" windowHeight="15220" xr2:uid="{336C8796-60CB-4448-92DC-EA3FD2C63DE9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="19">
   <si>
     <t>January</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Polygon</t>
+  </si>
+  <si>
+    <t>Note: Did using transaction fee data not gas used</t>
+  </si>
+  <si>
+    <t>Note: Did using burn because 100% of transaction fee is burned</t>
   </si>
 </sst>
 </file>
@@ -175,7 +181,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -189,6 +195,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -505,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0408AECF-CD99-2746-A1C7-FE1C2FC40BBC}">
-  <dimension ref="A2:J62"/>
+  <dimension ref="A2:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -521,8 +528,8 @@
     <col min="10" max="10" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="6"/>
@@ -547,7 +554,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -573,8 +580,11 @@
       <c r="J3" s="4">
         <v>144016308.50072598</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -600,7 +610,7 @@
         <v>105772085.62902129</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -626,7 +636,7 @@
         <v>73687226.808572218</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -652,7 +662,7 @@
         <v>84414967.207437068</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -678,7 +688,7 @@
         <v>90333662.677756265</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -704,7 +714,7 @@
         <v>35049009.432034835</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -730,7 +740,7 @@
         <v>23394939.178285208</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -756,7 +766,7 @@
         <v>26433576.55894924</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -782,7 +792,7 @@
         <v>14015873.748878164</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -804,7 +814,7 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -826,7 +836,7 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
@@ -848,7 +858,7 @@
       </c>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
@@ -880,365 +890,663 @@
         <v>597117649.74166024</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18">
+      <c r="B18" s="6"/>
+      <c r="C18" s="5">
         <v>2020</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>2021</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>2022</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="8"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5">
+        <v>2020</v>
+      </c>
+      <c r="I18" s="5">
+        <v>2021</v>
+      </c>
+      <c r="J18" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="2"/>
       <c r="D19">
-        <v>12973.502242959998</v>
+        <v>29792.865853680625</v>
       </c>
       <c r="E19">
-        <v>270653.96046394994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>160389.16945525003</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
+        <v>1249045.9417340066</v>
+      </c>
+      <c r="J19" s="4">
+        <v>71454596.22795181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="2"/>
       <c r="D20">
-        <v>69304.170350169996</v>
+        <v>87618.179724631118</v>
       </c>
       <c r="E20">
-        <v>228756.76844027001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>135036.06105020369</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
+        <v>15803888.985144556</v>
+      </c>
+      <c r="J20" s="4">
+        <v>53526710.23777473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2"/>
       <c r="D21">
-        <v>96617.071278300034</v>
+        <v>119843.90408197945</v>
       </c>
       <c r="E21">
-        <v>213460.07592483997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>129154.26286994974</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
+        <v>31346329.235455755</v>
+      </c>
+      <c r="J21" s="4">
+        <v>51426403.820613727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="2"/>
       <c r="D22">
-        <v>203176.54695210001</v>
+        <v>157322.93420840509</v>
       </c>
       <c r="E22">
-        <v>203557.86321215003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>123774.29771928155</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
+        <v>77194820.533725262</v>
+      </c>
+      <c r="J22" s="4">
+        <v>51493775.903599918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="2"/>
       <c r="D23">
-        <v>303936.52483087999</v>
+        <v>224442.83294201369</v>
       </c>
       <c r="E23">
-        <v>191984.83042417999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>118324.45402475563</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4">
+        <v>115004370.14152235</v>
+      </c>
+      <c r="J23" s="4">
+        <v>37956770.445574231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2"/>
       <c r="D24">
-        <v>187777.27089079001</v>
+        <v>123354.18475022266</v>
       </c>
       <c r="E24">
-        <v>153587.73933798002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93154.892692220907</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
+        <v>42175362.790940188</v>
+      </c>
+      <c r="J24" s="4">
+        <v>23271011.166000277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2"/>
       <c r="D25">
-        <v>288555.64666038996</v>
+        <v>180315.124573932</v>
       </c>
       <c r="E25">
-        <v>146174.68195144006</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90539.358991720728</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4">
+        <v>55519364.267596886</v>
+      </c>
+      <c r="J25" s="4">
+        <v>22511159.822133269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26">
+        <v>0.95482134200000002</v>
+      </c>
       <c r="D26">
-        <v>374711.59131995006</v>
+        <v>211297.28027001576</v>
       </c>
       <c r="E26">
-        <v>129469.70133003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79636.569739170067</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="4">
+        <v>22.18495402544</v>
+      </c>
+      <c r="I26" s="4">
+        <v>85694321.692356169</v>
+      </c>
+      <c r="J26" s="4">
+        <v>24158404.673440218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27">
-        <v>2777.4963118699993</v>
+        <v>7415.9491176384281</v>
       </c>
       <c r="D27">
-        <v>256324.76945318995</v>
+        <v>148965.60724582756</v>
       </c>
       <c r="E27">
-        <v>86224.150276859989</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>53285.015422100361</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="4">
+        <v>206830.33311815094</v>
+      </c>
+      <c r="I27" s="4">
+        <v>62060695.041603751</v>
+      </c>
+      <c r="J27" s="4">
+        <v>14827461.447549803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="C28">
-        <v>6350.3516947300013</v>
+        <v>14345.654559169792</v>
       </c>
       <c r="D28">
-        <v>349093.17074248998</v>
+        <v>198130.65820926483</v>
       </c>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="4">
+        <v>424973.87950071978</v>
+      </c>
+      <c r="I28" s="4">
+        <v>92953614.913156435</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29">
-        <v>5225.2683437000005</v>
+        <v>11434.265550127373</v>
       </c>
       <c r="D29">
-        <v>578345.89316281001</v>
+        <v>335810.63304210408</v>
       </c>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="4">
+        <v>316948.74281162448</v>
+      </c>
+      <c r="I29" s="4">
+        <v>202405866.09993652</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C30">
-        <v>7625.1266395200018</v>
+        <v>16890.821686007639</v>
       </c>
       <c r="D30">
-        <v>375396.27598556993</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+        <v>226294.2625009547</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="G30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="4">
+        <v>543773.82622415177</v>
+      </c>
+      <c r="I30" s="4">
+        <v>126565691.30727558</v>
+      </c>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="12">
         <f>SUM(C19:C30)</f>
-        <v>21978.242989820006</v>
-      </c>
-      <c r="D31" s="3">
-        <f>SUM(D19:D30)</f>
-        <v>3096212.4338695994</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" ref="E31" si="2">SUM(E19:E30)</f>
-        <v>1623869.7713617003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50087.645734285237</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" ref="D31:E31" si="2">SUM(D19:D30)</f>
+        <v>2043188.4674030317</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="2"/>
+        <v>983294.08196465252</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="9">
+        <f>SUM(H19:H30)</f>
+        <v>1492548.9666086724</v>
+      </c>
+      <c r="I31" s="9">
+        <f t="shared" ref="I31:J31" si="3">SUM(I19:I30)</f>
+        <v>907973370.95044732</v>
+      </c>
+      <c r="J31" s="9">
+        <f t="shared" si="3"/>
+        <v>350626293.74463797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34">
+      <c r="B34" s="6"/>
+      <c r="C34" s="5">
         <v>2020</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <v>2021</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="5">
         <v>2022</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="8"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="5">
+        <v>2020</v>
+      </c>
+      <c r="I34" s="5">
+        <v>2021</v>
+      </c>
+      <c r="J34" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="2"/>
       <c r="D35">
-        <v>2.6471785849999998</v>
+        <v>3852.0132715480104</v>
       </c>
       <c r="E35">
-        <v>3212.351539530001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>133997.33452720163</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="13">
+        <v>299076.00427335856</v>
+      </c>
+      <c r="J35" s="13">
+        <v>10810997.436126301</v>
+      </c>
+      <c r="L35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="2"/>
       <c r="D36">
-        <v>34.700866363000003</v>
+        <v>15810.797358881999</v>
       </c>
       <c r="E36">
-        <v>3798.0433221000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>205751.20430412726</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="13">
+        <v>552023.05925024592</v>
+      </c>
+      <c r="J36" s="13">
+        <v>16549136.163152834</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="2"/>
       <c r="D37">
-        <v>62.550672212999999</v>
+        <v>29070.073556047417</v>
       </c>
       <c r="E37">
-        <v>4662.3602621</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>293524.16111157119</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="13">
+        <v>856943.49242490798</v>
+      </c>
+      <c r="J37" s="13">
+        <v>23838122.001626991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="2"/>
       <c r="D38">
-        <v>83.934753983999983</v>
+        <v>18479.183367015652</v>
       </c>
       <c r="E38">
-        <v>4673.1353620999989</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>346247.01990915323</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="13">
+        <v>534409.10242805921</v>
+      </c>
+      <c r="J38" s="13">
+        <v>27746475.381827939</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="2"/>
       <c r="D39">
-        <v>162.17354466699999</v>
+        <v>37994.845369842864</v>
       </c>
       <c r="E39">
-        <v>3044.76509747</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>232909.45681471133</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="13">
+        <v>1183876.4692895385</v>
+      </c>
+      <c r="J39" s="13">
+        <v>10423489.679568397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="2"/>
       <c r="D40">
-        <v>86.733060157999986</v>
+        <v>19714.370174210355</v>
       </c>
       <c r="E40">
-        <v>1417.1635988599999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>55126.625556705832</v>
+      </c>
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="13">
+        <v>278259.01551377831</v>
+      </c>
+      <c r="J40" s="13">
+        <v>1057924.346280755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="2"/>
       <c r="D41">
-        <v>73.499458830999984</v>
+        <v>16843.908590756015</v>
       </c>
       <c r="E41">
-        <v>1183.5913256499998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39683.458639275224</v>
+      </c>
+      <c r="G41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="13">
+        <v>198723.69454005946</v>
+      </c>
+      <c r="J41" s="13">
+        <v>817359.9694312464</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42">
+        <v>39.470430800000003</v>
+      </c>
       <c r="D42">
-        <v>377.70653384600001</v>
+        <v>65712.109331970263</v>
       </c>
       <c r="E42">
-        <v>1149.3496292500001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35712.161151710781</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="13">
+        <v>129.06830871600002</v>
+      </c>
+      <c r="I42" s="13">
+        <v>2472664.9868983114</v>
+      </c>
+      <c r="J42" s="13">
+        <v>872520.02932776639</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43">
-        <v>3.5370578E-2</v>
+        <v>3.3987471899999995</v>
       </c>
       <c r="D43">
-        <v>783.19297426000014</v>
+        <v>81731.85305898542</v>
       </c>
       <c r="E43">
-        <v>725.42316131000007</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23295.549789279445</v>
+      </c>
+      <c r="G43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="13">
+        <v>15.472087374799997</v>
+      </c>
+      <c r="I43" s="13">
+        <v>4574359.2464113422</v>
+      </c>
+      <c r="J43" s="13">
+        <v>442258.47998907248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44">
-        <v>0.21362762499999993</v>
+        <v>117.15738337999997</v>
       </c>
       <c r="D44">
-        <v>1268.5795459799997</v>
+        <v>49321.977911096001</v>
       </c>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="13">
+        <v>489.42200841509998</v>
+      </c>
+      <c r="I44" s="13">
+        <v>3079546.0495852479</v>
+      </c>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45">
-        <v>5.2687018999999995E-2</v>
+        <v>24.772189869999998</v>
       </c>
       <c r="D45">
-        <v>2139.5064091599997</v>
+        <v>127561.75389825199</v>
       </c>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="13">
+        <v>88.066019287000003</v>
+      </c>
+      <c r="I45" s="13">
+        <v>13877289.598445175</v>
+      </c>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C46">
-        <v>0.60536798800000002</v>
+        <v>245.05978089000001</v>
       </c>
       <c r="D46">
-        <v>3266.3416425100004</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+        <v>126285.20224083182</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="G46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="13">
+        <v>758.81508998139998</v>
+      </c>
+      <c r="I46" s="13">
+        <v>13001816.463561192</v>
+      </c>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="12">
         <f>SUM(C35:C46)</f>
-        <v>0.90705320999999994</v>
-      </c>
-      <c r="D47" s="3">
-        <f>SUM(D35:D46)</f>
-        <v>8341.5666405570009</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" ref="E47" si="3">SUM(E35:E46)</f>
-        <v>23866.183298370001</v>
+        <v>429.85853212999996</v>
+      </c>
+      <c r="D47" s="12">
+        <f t="shared" ref="D47:E47" si="4">SUM(D35:D46)</f>
+        <v>592378.08812943788</v>
+      </c>
+      <c r="E47" s="12">
+        <f t="shared" si="4"/>
+        <v>1366246.9718037357</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="9">
+        <f>SUM(H35:H46)</f>
+        <v>1480.8435137742999</v>
+      </c>
+      <c r="I47" s="9">
+        <f t="shared" ref="I47:J47" si="5">SUM(I35:I46)</f>
+        <v>40908987.182621218</v>
+      </c>
+      <c r="J47" s="9">
+        <f t="shared" si="5"/>
+        <v>92558283.487331301</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1416,7 +1724,7 @@
         <v>6.2609043278999999E+24</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" ref="E62" si="4">SUM(E50:E61)</f>
+        <f t="shared" ref="E62" si="6">SUM(E50:E61)</f>
         <v>1.4448209999999999E+25</v>
       </c>
     </row>

--- a/Master_Sheet.xlsx
+++ b/Master_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jreinberg13/Documents/GitHub/UnifiResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE258C9-F7F4-CD4A-95D5-BA730B2B43BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683F49E8-3813-9145-A7B8-E4E8FCAC34A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="500" windowWidth="22900" windowHeight="15220" xr2:uid="{336C8796-60CB-4448-92DC-EA3FD2C63DE9}"/>
+    <workbookView xWindow="6980" yWindow="500" windowWidth="22900" windowHeight="15220" xr2:uid="{336C8796-60CB-4448-92DC-EA3FD2C63DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Transaction Fees" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="19">
   <si>
     <t>January</t>
   </si>
@@ -183,7 +183,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -196,6 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -515,7 +515,7 @@
   <dimension ref="A2:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,28 +529,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5">
+      <c r="B2" s="5"/>
+      <c r="C2" s="4">
         <v>2020</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>2021</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>2022</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5">
+      <c r="F2" s="7"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4">
         <v>2020</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>2021</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>2022</v>
       </c>
     </row>
@@ -567,17 +567,17 @@
       <c r="E3">
         <v>42738.085273025987</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="7"/>
       <c r="G3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>1392529.314071473</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>272663958.37869143</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>144016308.50072598</v>
       </c>
       <c r="L3" t="s">
@@ -600,13 +600,13 @@
       <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2885746.9626260577</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>687191017.89067817</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>105772085.62902129</v>
       </c>
     </row>
@@ -626,13 +626,13 @@
       <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>5249836.9349727184</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>636874019.89665222</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>73687226.808572218</v>
       </c>
     </row>
@@ -652,13 +652,13 @@
       <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>2773636.4141172525</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>647404138.07593489</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>84414967.207437068</v>
       </c>
     </row>
@@ -678,13 +678,13 @@
       <c r="G7" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>9840020.4726819079</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>1033953366.8283145</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>90333662.677756265</v>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="G8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>21946295.71590599</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>180013904.59193668</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>35049009.432034835</v>
       </c>
     </row>
@@ -730,13 +730,13 @@
       <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>30341847.790726349</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>193034312.61828864</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>23394939.178285208</v>
       </c>
     </row>
@@ -756,13 +756,13 @@
       <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>110077627.38197212</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>183310057.00763515</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>26433576.55894924</v>
       </c>
     </row>
@@ -782,13 +782,13 @@
       <c r="G11" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>171111479.90355253</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>217840126.26484093</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>14015873.748878164</v>
       </c>
     </row>
@@ -802,17 +802,17 @@
       <c r="D12">
         <v>50609.416578533259</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="1"/>
       <c r="G12" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>55356817.855323538</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>177894658.89751881</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
@@ -824,100 +824,100 @@
       <c r="D13">
         <v>48983.667794738889</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="1"/>
       <c r="G13" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>57309707.932708867</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>215429696.02718508</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>173907.64506409786</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>36331.417526959507</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="G14" s="5" t="s">
+      <c r="E14" s="6"/>
+      <c r="G14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>103940473.43714187</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>151804818.09631392</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <f>SUM(C3:C14)</f>
         <v>1524139.9320898589</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f t="shared" ref="D15:E15" si="0">SUM(D3:D14)</f>
         <v>2128808.5951633244</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <f t="shared" si="0"/>
         <v>233044.33372164451</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <f>SUM(H3:H14)</f>
         <v>572226020.11580074</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <f t="shared" ref="I15:J15" si="1">SUM(I3:I14)</f>
         <v>4597414074.5739899</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <f t="shared" si="1"/>
         <v>597117649.74166024</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5">
+      <c r="B18" s="5"/>
+      <c r="C18" s="4">
         <v>2020</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>2021</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>2022</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5">
+      <c r="F18" s="7"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4">
         <v>2020</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>2021</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>2022</v>
       </c>
     </row>
@@ -931,15 +931,15 @@
       <c r="E19">
         <v>160389.16945525003</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="7"/>
       <c r="G19" t="s">
         <v>0</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
         <v>1249045.9417340066</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>71454596.22795181</v>
       </c>
       <c r="L19" t="s">
@@ -959,11 +959,11 @@
       <c r="G20" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
         <v>15803888.985144556</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="3">
         <v>53526710.23777473</v>
       </c>
     </row>
@@ -980,11 +980,11 @@
       <c r="G21" t="s">
         <v>2</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
         <v>31346329.235455755</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>51426403.820613727</v>
       </c>
     </row>
@@ -1001,11 +1001,11 @@
       <c r="G22" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
         <v>77194820.533725262</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>51493775.903599918</v>
       </c>
     </row>
@@ -1022,11 +1022,11 @@
       <c r="G23" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
         <v>115004370.14152235</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>37956770.445574231</v>
       </c>
     </row>
@@ -1043,11 +1043,11 @@
       <c r="G24" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
         <v>42175362.790940188</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>23271011.166000277</v>
       </c>
     </row>
@@ -1064,11 +1064,11 @@
       <c r="G25" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
         <v>55519364.267596886</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>22511159.822133269</v>
       </c>
     </row>
@@ -1088,13 +1088,13 @@
       <c r="G26" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>22.18495402544</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>85694321.692356169</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <v>24158404.673440218</v>
       </c>
     </row>
@@ -1114,13 +1114,13 @@
       <c r="G27" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>206830.33311815094</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>62060695.041603751</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>14827461.447549803</v>
       </c>
     </row>
@@ -1134,17 +1134,17 @@
       <c r="D28">
         <v>198130.65820926483</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="1"/>
       <c r="G28" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>424973.87950071978</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>92953614.913156435</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
@@ -1156,20 +1156,20 @@
       <c r="D29">
         <v>335810.63304210408</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="1"/>
       <c r="G29" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>316948.74281162448</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <v>202405866.09993652</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C30">
@@ -1178,46 +1178,46 @@
       <c r="D30">
         <v>226294.2625009547</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="G30" s="5" t="s">
+      <c r="E30" s="6"/>
+      <c r="G30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>543773.82622415177</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <v>126565691.30727558</v>
       </c>
-      <c r="J30" s="10"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <f>SUM(C19:C30)</f>
         <v>50087.645734285237</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <f t="shared" ref="D31:E31" si="2">SUM(D19:D30)</f>
         <v>2043188.4674030317</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <f t="shared" si="2"/>
         <v>983294.08196465252</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="8">
         <f>SUM(H19:H30)</f>
         <v>1492548.9666086724</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <f t="shared" ref="I31:J31" si="3">SUM(I19:I30)</f>
         <v>907973370.95044732</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <f t="shared" si="3"/>
         <v>350626293.74463797</v>
       </c>
@@ -1226,25 +1226,25 @@
       <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5">
+      <c r="B34" s="5"/>
+      <c r="C34" s="4">
         <v>2020</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>2021</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>2022</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="5">
+      <c r="F34" s="7"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="4">
         <v>2020</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <v>2021</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <v>2022</v>
       </c>
     </row>
@@ -1258,15 +1258,15 @@
       <c r="E35">
         <v>133997.33452720163</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="7"/>
       <c r="G35" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="13">
+      <c r="H35" s="3"/>
+      <c r="I35" s="12">
         <v>299076.00427335856</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="12">
         <v>10810997.436126301</v>
       </c>
       <c r="L35" t="s">
@@ -1286,11 +1286,11 @@
       <c r="G36" t="s">
         <v>1</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="13">
+      <c r="H36" s="3"/>
+      <c r="I36" s="12">
         <v>552023.05925024592</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="12">
         <v>16549136.163152834</v>
       </c>
     </row>
@@ -1307,11 +1307,11 @@
       <c r="G37" t="s">
         <v>2</v>
       </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="13">
+      <c r="H37" s="3"/>
+      <c r="I37" s="12">
         <v>856943.49242490798</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="12">
         <v>23838122.001626991</v>
       </c>
     </row>
@@ -1328,11 +1328,11 @@
       <c r="G38" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="13">
+      <c r="H38" s="3"/>
+      <c r="I38" s="12">
         <v>534409.10242805921</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="12">
         <v>27746475.381827939</v>
       </c>
     </row>
@@ -1349,11 +1349,11 @@
       <c r="G39" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="13">
+      <c r="H39" s="3"/>
+      <c r="I39" s="12">
         <v>1183876.4692895385</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="12">
         <v>10423489.679568397</v>
       </c>
     </row>
@@ -1370,11 +1370,11 @@
       <c r="G40" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="13">
+      <c r="H40" s="3"/>
+      <c r="I40" s="12">
         <v>278259.01551377831</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="12">
         <v>1057924.346280755</v>
       </c>
     </row>
@@ -1391,11 +1391,11 @@
       <c r="G41" t="s">
         <v>6</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="13">
+      <c r="H41" s="3"/>
+      <c r="I41" s="12">
         <v>198723.69454005946</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="12">
         <v>817359.9694312464</v>
       </c>
     </row>
@@ -1415,13 +1415,13 @@
       <c r="G42" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="12">
         <v>129.06830871600002</v>
       </c>
-      <c r="I42" s="13">
+      <c r="I42" s="12">
         <v>2472664.9868983114</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="12">
         <v>872520.02932776639</v>
       </c>
     </row>
@@ -1441,13 +1441,13 @@
       <c r="G43" t="s">
         <v>8</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="12">
         <v>15.472087374799997</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="12">
         <v>4574359.2464113422</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="12">
         <v>442258.47998907248</v>
       </c>
     </row>
@@ -1461,17 +1461,17 @@
       <c r="D44">
         <v>49321.977911096001</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="1"/>
       <c r="G44" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="12">
         <v>489.42200841509998</v>
       </c>
-      <c r="I44" s="13">
+      <c r="I44" s="12">
         <v>3079546.0495852479</v>
       </c>
-      <c r="J44" s="4"/>
+      <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
@@ -1483,20 +1483,20 @@
       <c r="D45">
         <v>127561.75389825199</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="1"/>
       <c r="G45" t="s">
         <v>10</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="12">
         <v>88.066019287000003</v>
       </c>
-      <c r="I45" s="13">
+      <c r="I45" s="12">
         <v>13877289.598445175</v>
       </c>
-      <c r="J45" s="4"/>
+      <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C46">
@@ -1505,8 +1505,8 @@
       <c r="D46">
         <v>126285.20224083182</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="G46" s="5" t="s">
+      <c r="E46" s="6"/>
+      <c r="G46" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H46" s="13">
@@ -1515,217 +1515,370 @@
       <c r="I46" s="13">
         <v>13001816.463561192</v>
       </c>
-      <c r="J46" s="10"/>
+      <c r="J46" s="9"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <f>SUM(C35:C46)</f>
         <v>429.85853212999996</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <f t="shared" ref="D47:E47" si="4">SUM(D35:D46)</f>
         <v>592378.08812943788</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="11">
         <f t="shared" si="4"/>
         <v>1366246.9718037357</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="8">
         <f>SUM(H35:H46)</f>
         <v>1480.8435137742999</v>
       </c>
-      <c r="I47" s="9">
+      <c r="I47" s="8">
         <f t="shared" ref="I47:J47" si="5">SUM(I35:I46)</f>
         <v>40908987.182621218</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="8">
         <f t="shared" si="5"/>
         <v>92558283.487331301</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49">
+      <c r="B49" s="5"/>
+      <c r="C49" s="4">
         <v>2020</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="4">
         <v>2021</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <v>2022</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="7"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I49" s="4">
+        <v>2021</v>
+      </c>
+      <c r="J49" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>0</v>
       </c>
       <c r="D50">
-        <v>7.2449990000000002E+20</v>
+        <v>724.50074333402506</v>
       </c>
       <c r="E50">
-        <v>2.7366319999999998E+24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2736633.9682691242</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="12">
+        <v>23.165464598614058</v>
+      </c>
+      <c r="J50" s="12">
+        <v>5743872.8688756609</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>2.3787280000000003E+21</v>
+        <v>2378.7323786342922</v>
       </c>
       <c r="E51">
-        <v>9.9936099999999989E+23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>999359.77762485179</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="12">
+        <v>371.65464084219423</v>
+      </c>
+      <c r="J51" s="12">
+        <v>1659689.568399214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>2</v>
       </c>
       <c r="D52">
-        <v>1.9219069999999997E+22</v>
+        <v>19219.068571404707</v>
       </c>
       <c r="E52">
-        <v>9.7395100000000009E+23</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>973949.34055967873</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="12">
+        <v>6002.4918069846444</v>
+      </c>
+      <c r="J52" s="12">
+        <v>1482152.3145635377</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="D53">
-        <v>2.579968E+22</v>
+        <v>25799.788122261609</v>
       </c>
       <c r="E53">
-        <v>1.140549E+24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1140549.3769424455</v>
+      </c>
+      <c r="G53" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="12">
+        <v>14396.036419263515</v>
+      </c>
+      <c r="J53" s="12">
+        <v>1581412.1209758779</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>4</v>
       </c>
       <c r="D54">
-        <v>5.9496449999999991E+22</v>
+        <v>59496.511881698039</v>
       </c>
       <c r="E54">
-        <v>2.0499430000000001E+24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2049938.8884568333</v>
+      </c>
+      <c r="G54" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="12">
+        <v>86379.876992303587</v>
+      </c>
+      <c r="J54" s="12">
+        <v>1523479.2506951175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>5</v>
       </c>
       <c r="C55">
-        <v>2.39765167E+17</v>
+        <v>0.2397679777722479</v>
       </c>
       <c r="D55">
-        <v>2.480058E+23</v>
+        <v>248005.86171110137</v>
       </c>
       <c r="E55">
-        <v>2.1321710000000003E+24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2132171.0945645487</v>
+      </c>
+      <c r="G55" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12">
+        <v>323243.7363099255</v>
+      </c>
+      <c r="J55" s="12">
+        <v>1027463.0284766647</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>7.12043959E+18</v>
+        <v>7.1204262002459249</v>
       </c>
       <c r="D56">
-        <v>5.8858410000000005E+23</v>
+        <v>588584.91890847578</v>
       </c>
       <c r="E56">
-        <v>1.7589320000000002E+24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1758927.5987833187</v>
+      </c>
+      <c r="G56" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="12">
+        <v>0.14240852400491855</v>
+      </c>
+      <c r="I56" s="12">
+        <v>553879.58795567241</v>
+      </c>
+      <c r="J56" s="12">
+        <v>1312791.7884610202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57">
-        <v>3.838358E+19</v>
+        <v>38.383719765167292</v>
       </c>
       <c r="D57">
-        <v>6.877310000000001E+23</v>
+        <v>687730.84415867645</v>
       </c>
       <c r="E57">
-        <v>1.6185860000000001E+24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1618585.7239269745</v>
+      </c>
+      <c r="G57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="12">
+        <v>0.99340701611418902</v>
+      </c>
+      <c r="I57" s="12">
+        <v>930853.48070381302</v>
+      </c>
+      <c r="J57" s="12">
+        <v>1402439.3187070584</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58">
-        <v>1.8728278000000002E+20</v>
+        <v>187.28264186467442</v>
       </c>
       <c r="D58">
-        <v>8.3690200000000005E+23</v>
+        <v>836905.2848096966</v>
       </c>
       <c r="E58">
-        <v>1.0380850000000003E+24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1038084.3004713005</v>
+      </c>
+      <c r="G58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="12">
+        <v>3.7607535616634893</v>
+      </c>
+      <c r="I58" s="12">
+        <v>1081236.9288191472</v>
+      </c>
+      <c r="J58" s="12">
+        <v>866772.11193567468</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>9</v>
       </c>
       <c r="C59">
-        <v>2.412296E+20</v>
+        <v>241.22923712251225</v>
       </c>
       <c r="D59">
-        <v>9.4118399999999983E+23</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>941182.35561322886</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="12">
+        <v>4.6483291078497491</v>
+      </c>
+      <c r="I59" s="12">
+        <v>1459924.9337576027</v>
+      </c>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>10</v>
       </c>
       <c r="C60">
-        <v>1.868724E+20</v>
+        <v>186.87265677792419</v>
       </c>
       <c r="D60">
-        <v>1.2681519999999999E+24</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+        <v>1268151.4352738908</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="12">
+        <v>3.335430859841447</v>
+      </c>
+      <c r="I60" s="12">
+        <v>2194835.7394488342</v>
+      </c>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C61">
-        <v>4.8060169999999998E+20</v>
+        <v>480.601916177649</v>
       </c>
       <c r="D61">
-        <v>1.5827269999999998E+24</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+        <v>1582725.7102837528</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="G61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="13">
+        <v>9.6120383235529818</v>
+      </c>
+      <c r="I61" s="13">
+        <v>3561204.1630747491</v>
+      </c>
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="11">
         <f>SUM(C50:C61)</f>
-        <v>1.1417302647570001E+21</v>
-      </c>
-      <c r="D62" s="3">
-        <f>SUM(D50:D61)</f>
-        <v>6.2609043278999999E+24</v>
-      </c>
-      <c r="E62" s="3">
-        <f t="shared" ref="E62" si="6">SUM(E50:E61)</f>
-        <v>1.4448209999999999E+25</v>
+        <v>1141.7303658859453</v>
+      </c>
+      <c r="D62" s="11">
+        <f t="shared" ref="D62:E62" si="6">SUM(D50:D61)</f>
+        <v>6260905.0124561545</v>
+      </c>
+      <c r="E62" s="11">
+        <f t="shared" si="6"/>
+        <v>14448200.069599075</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="8">
+        <f>SUM(H50:H61)</f>
+        <v>22.492367393026775</v>
+      </c>
+      <c r="I62" s="8">
+        <f t="shared" ref="I62:J62" si="7">SUM(I50:I61)</f>
+        <v>10212351.795393737</v>
+      </c>
+      <c r="J62" s="8">
+        <f t="shared" si="7"/>
+        <v>16600072.371089825</v>
       </c>
     </row>
   </sheetData>

--- a/Master_Sheet.xlsx
+++ b/Master_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jreinberg13/Documents/GitHub/UnifiResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683F49E8-3813-9145-A7B8-E4E8FCAC34A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A432EE4-CA27-3740-A1A1-518DF80844DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="500" windowWidth="22900" windowHeight="15220" xr2:uid="{336C8796-60CB-4448-92DC-EA3FD2C63DE9}"/>
+    <workbookView xWindow="1960" yWindow="500" windowWidth="22900" windowHeight="15220" xr2:uid="{336C8796-60CB-4448-92DC-EA3FD2C63DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Transaction Fees" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="20">
   <si>
     <t>January</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Note: Did using burn because 100% of transaction fee is burned</t>
+  </si>
+  <si>
+    <t>Fantom</t>
   </si>
 </sst>
 </file>
@@ -512,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0408AECF-CD99-2746-A1C7-FE1C2FC40BBC}">
-  <dimension ref="A2:L62"/>
+  <dimension ref="A2:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J73" sqref="J65:J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1881,6 +1884,330 @@
         <v>16600072.371089825</v>
       </c>
     </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="4">
+        <v>2020</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2021</v>
+      </c>
+      <c r="E64" s="4">
+        <v>2022</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="4">
+        <v>2020</v>
+      </c>
+      <c r="I64" s="4">
+        <v>2021</v>
+      </c>
+      <c r="J64" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>2255.9308715230904</v>
+      </c>
+      <c r="E65">
+        <v>2732543.0239112894</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="12">
+        <v>131.4662620885758</v>
+      </c>
+      <c r="J65" s="12">
+        <v>6819916.5419563679</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>2944.9542042814846</v>
+      </c>
+      <c r="E66">
+        <v>2962017.3353822245</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="12">
+        <v>924.71004477656254</v>
+      </c>
+      <c r="J66" s="12">
+        <v>5275297.9219428794</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>2892.1593600936453</v>
+      </c>
+      <c r="E67">
+        <v>3245217.9087426914</v>
+      </c>
+      <c r="G67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="12">
+        <v>1240.510699449891</v>
+      </c>
+      <c r="J67" s="12">
+        <v>4709603.2211963739</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>7938.6676448870003</v>
+      </c>
+      <c r="E68">
+        <v>2029561.7556806258</v>
+      </c>
+      <c r="G68" t="s">
+        <v>3</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="12">
+        <v>3018.9984232859233</v>
+      </c>
+      <c r="J68" s="12">
+        <v>2181022.8143233829</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>185553.04569469471</v>
+      </c>
+      <c r="E69">
+        <v>6630549.6449794546</v>
+      </c>
+      <c r="G69" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="12">
+        <v>73785.714586269343</v>
+      </c>
+      <c r="J69" s="12">
+        <v>2569152.5284649613</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>147040.58334551365</v>
+      </c>
+      <c r="E70">
+        <v>2620960.7437997749</v>
+      </c>
+      <c r="G70" t="s">
+        <v>5</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12">
+        <v>41532.247762006547</v>
+      </c>
+      <c r="J70" s="12">
+        <v>651837.6721460704</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <v>176541.78833612279</v>
+      </c>
+      <c r="E71">
+        <v>458899.31001603696</v>
+      </c>
+      <c r="G71" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12">
+        <v>38101.284909951151</v>
+      </c>
+      <c r="J71" s="12">
+        <v>133424.51901367039</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>5.9962006751875006</v>
+      </c>
+      <c r="D72">
+        <v>267257.52067920356</v>
+      </c>
+      <c r="E72">
+        <v>325786.81586395303</v>
+      </c>
+      <c r="G72" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="12">
+        <v>0.21662892905999998</v>
+      </c>
+      <c r="I72" s="12">
+        <v>142487.19543638796</v>
+      </c>
+      <c r="J72" s="12">
+        <v>102817.70675577065</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>80.560959886046476</v>
+      </c>
+      <c r="D73">
+        <v>995921.09855431889</v>
+      </c>
+      <c r="E73">
+        <v>397335.58323157905</v>
+      </c>
+      <c r="G73" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="12">
+        <v>3.525355635245262</v>
+      </c>
+      <c r="I73" s="12">
+        <v>1281219.761073648</v>
+      </c>
+      <c r="J73" s="12">
+        <v>94153.584177206591</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>59.529333022949999</v>
+      </c>
+      <c r="D74">
+        <v>1302223.2061063242</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="12">
+        <v>1.620096703839</v>
+      </c>
+      <c r="I74" s="12">
+        <v>2957406.3440787708</v>
+      </c>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>213.7139832979183</v>
+      </c>
+      <c r="D75">
+        <v>1002647.7795784872</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="12">
+        <v>4.2457523676243669</v>
+      </c>
+      <c r="I75" s="12">
+        <v>2419151.9169199672</v>
+      </c>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76">
+        <v>1511.7344861009151</v>
+      </c>
+      <c r="D76">
+        <v>1161564.9259678838</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="G76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="12">
+        <v>30.234689722018306</v>
+      </c>
+      <c r="I76" s="12">
+        <v>1959555.162706964</v>
+      </c>
+      <c r="J76" s="9"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B77" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="11">
+        <f>SUM(C65:C76)</f>
+        <v>1871.5349629830175</v>
+      </c>
+      <c r="D77" s="11">
+        <f t="shared" ref="D77:E77" si="8">SUM(D65:D76)</f>
+        <v>5254781.6603433341</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="8"/>
+        <v>21402872.121607628</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="8">
+        <f>SUM(H65:H76)</f>
+        <v>39.842523357786931</v>
+      </c>
+      <c r="I77" s="8">
+        <f t="shared" ref="I77:J77" si="9">SUM(I65:I76)</f>
+        <v>8918555.3129035663</v>
+      </c>
+      <c r="J77" s="8">
+        <f t="shared" si="9"/>
+        <v>22537226.509976689</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Master_Sheet.xlsx
+++ b/Master_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jreinberg13/Documents/GitHub/UnifiResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A432EE4-CA27-3740-A1A1-518DF80844DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E9DA8C-AF46-8E46-A1F5-D2672AB826F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="500" windowWidth="22900" windowHeight="15220" xr2:uid="{336C8796-60CB-4448-92DC-EA3FD2C63DE9}"/>
+    <workbookView xWindow="5800" yWindow="500" windowWidth="22900" windowHeight="15220" xr2:uid="{336C8796-60CB-4448-92DC-EA3FD2C63DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Transaction Fees" sheetId="1" r:id="rId1"/>
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0408AECF-CD99-2746-A1C7-FE1C2FC40BBC}">
   <dimension ref="A2:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J73" sqref="J65:J73"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E14" sqref="C3:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,13 +561,13 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>9705.5616792755045</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>273504.33063001058</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>42738.085273025987</v>
       </c>
       <c r="F3" s="7"/>
@@ -591,13 +591,13 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>12987.156698911589</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>423959.58428982366</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>37970.760158022036</v>
       </c>
       <c r="G4" t="s">
@@ -617,13 +617,13 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>26157.266749570179</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>373341.95810410765</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>26801.227826930499</v>
       </c>
       <c r="G5" t="s">
@@ -643,13 +643,13 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>17609.485646606987</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>316138.01449521934</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>26302.017774321328</v>
       </c>
       <c r="G6" t="s">
@@ -669,13 +669,13 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>48344.410777875404</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>309860.04362762003</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>33875.728820492666</v>
       </c>
       <c r="G7" t="s">
@@ -695,13 +695,13 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>93307.111458478365</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>71927.595136702294</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>22006.117349997348</v>
       </c>
       <c r="G8" t="s">
@@ -721,13 +721,13 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>126818.71297660519</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>93870.231832583842</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>19061.034727208305</v>
       </c>
       <c r="G9" t="s">
@@ -747,13 +747,13 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>283497.66169942426</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>66172.757610851928</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>15497.182376810115</v>
       </c>
       <c r="G10" t="s">
@@ -773,13 +773,13 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>450089.65021405573</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>64109.577536173405</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>8792.1794148362133</v>
       </c>
       <c r="G11" t="s">
@@ -799,10 +799,10 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>152951.18870914797</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>50609.416578533259</v>
       </c>
       <c r="E12" s="1"/>
@@ -821,10 +821,10 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>128764.08041581002</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>48983.667794738889</v>
       </c>
       <c r="E13" s="1"/>
@@ -843,10 +843,10 @@
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>173907.64506409786</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>36331.417526959507</v>
       </c>
       <c r="E14" s="6"/>
